--- a/Structural complexity_Benthic cover_2022-08_Hard coral per patch.xlsx
+++ b/Structural complexity_Benthic cover_2022-08_Hard coral per patch.xlsx
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.05442073170731707</v>
+        <v>0.07850609756097561</v>
       </c>
     </row>
     <row r="4">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="G6">
-        <v>0.1025914634146341</v>
+        <v>0.2230182926829269</v>
       </c>
     </row>
     <row r="7">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="G12">
-        <v>0.3675304878048781</v>
+        <v>0.3916158536585366</v>
       </c>
     </row>
     <row r="13">
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="G32">
-        <v>0.03033536585365854</v>
+        <v>0.05442073170731707</v>
       </c>
     </row>
     <row r="33">
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="G33">
-        <v>0.1507621951219512</v>
+        <v>0.1748475609756098</v>
       </c>
     </row>
     <row r="34">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="G38">
-        <v>0.1748475609756098</v>
+        <v>0.1989329268292683</v>
       </c>
     </row>
     <row r="39">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="G44">
-        <v>0.2230182926829269</v>
+        <v>0.2711890243902439</v>
       </c>
     </row>
     <row r="45">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="G45">
-        <v>0.1989329268292683</v>
+        <v>0.2230182926829269</v>
       </c>
     </row>
     <row r="46">
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="G46">
-        <v>0.07850609756097561</v>
+        <v>0.1025914634146341</v>
       </c>
     </row>
     <row r="47">
